--- a/Lab3/maxSpeedTest/maxSpeedTest.xlsx
+++ b/Lab3/maxSpeedTest/maxSpeedTest.xlsx
@@ -251,7 +251,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,18 +291,18 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>865</v>
+        <v>937</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>881</v>
+        <v>1124</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">B2/A2</f>
-        <v>86.5</v>
+        <v>93.7</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">C2/A2</f>
-        <v>88.1</v>
+        <v>112.4</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>24</v>
@@ -323,11 +323,11 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="n">
         <f aca="false">D2/G2/H2</f>
-        <v>0.143409464693087</v>
+        <v>0.155346437476789</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">E2/G2/H2</f>
-        <v>0.146062125311688</v>
+        <v>0.186349408456682</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3/maxSpeedTest/maxSpeedTest.xlsx
+++ b/Lab3/maxSpeedTest/maxSpeedTest.xlsx
@@ -61,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,8 +121,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,83 +256,83 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>937</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1124</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <f aca="false">B2/A2</f>
         <v>93.7</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">C2/A2</f>
         <v>112.4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <f aca="false">4*3.1415*2</f>
         <v>25.132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="n">
-        <f aca="false">D2/G2/H2</f>
-        <v>0.155346437476789</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">E2/G2/H2</f>
-        <v>0.186349408456682</v>
+      <c r="D6" s="1" t="n">
+        <f aca="false">D2/G2*H2</f>
+        <v>98.1195166666667</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">E2/G2*H2</f>
+        <v>117.701533333333</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3/maxSpeedTest/maxSpeedTest.xlsx
+++ b/Lab3/maxSpeedTest/maxSpeedTest.xlsx
@@ -53,8 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -121,12 +122,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,10 +258,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,6 +321,10 @@
         <f aca="false">4*3.1415*2</f>
         <v>25.132</v>
       </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">G2/H2</f>
+        <v>0.954957822696164</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
